--- a/2-calidad/9-seguimiento-e-indicadores/Resultado Encuesta Satisfaccion Capacitacion DEA Junio2016.xlsx
+++ b/2-calidad/9-seguimiento-e-indicadores/Resultado Encuesta Satisfaccion Capacitacion DEA Junio2016.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>bueno</t>
   </si>
@@ -72,9 +72,6 @@
     <t>observacion</t>
   </si>
   <si>
-    <t>informativa</t>
-  </si>
-  <si>
     <t>RCP</t>
   </si>
   <si>
@@ -99,9 +96,6 @@
     <t>ALTURA</t>
   </si>
   <si>
-    <t>Las diferencias por falta de respuesta se tomaran por "SI"</t>
-  </si>
-  <si>
     <t>EPILEPSIA</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>RIESGO</t>
   </si>
   <si>
-    <t>FALTO 1 RESPUESTA</t>
-  </si>
-  <si>
     <t>Definición de parámetros de puntuación según Calidad</t>
   </si>
   <si>
@@ -136,6 +127,30 @@
   </si>
   <si>
     <t>Resultados totales por pregunta:</t>
+  </si>
+  <si>
+    <t>Sob-Totales</t>
+  </si>
+  <si>
+    <t>% TOTAL</t>
+  </si>
+  <si>
+    <t>Solicitud de Capacitacion requerida:</t>
+  </si>
+  <si>
+    <t>Puntaje Maximo</t>
+  </si>
+  <si>
+    <t>obtenido</t>
+  </si>
+  <si>
+    <t>posible</t>
+  </si>
+  <si>
+    <t>puntos</t>
+  </si>
+  <si>
+    <t>afirmativo</t>
   </si>
 </sst>
 </file>
@@ -145,7 +160,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,8 +205,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,6 +230,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,7 +319,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -318,6 +371,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -621,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -638,7 +722,7 @@
     <col min="12" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
@@ -667,9 +751,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" s="13">
         <v>10</v>
@@ -686,11 +770,15 @@
       <c r="F2" s="14">
         <v>2</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="14"/>
+      <c r="G2" s="15">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14">
+        <v>5</v>
+      </c>
       <c r="I2" s="20"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -698,7 +786,7 @@
         <v>20</v>
       </c>
       <c r="C3" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D3" s="6">
         <v>10</v>
@@ -706,15 +794,21 @@
       <c r="E3" s="6">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
       <c r="I3" s="16">
         <f>SUM(B3:H3)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -722,7 +816,7 @@
         <v>14</v>
       </c>
       <c r="C4" s="6">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" s="6">
         <v>14</v>
@@ -730,15 +824,21 @@
       <c r="E4" s="6">
         <v>3</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
       <c r="I4" s="16">
-        <f t="shared" ref="I4:I9" si="0">SUM(B4:H4)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="I4:I7" si="0">SUM(B4:H4)</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -746,50 +846,59 @@
         <v>30</v>
       </c>
       <c r="C5" s="6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" s="6">
-        <v>6</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
       <c r="G5" s="6">
-        <f>4*G2</f>
         <v>0</v>
       </c>
       <c r="H5" s="6">
-        <f>17*H2</f>
         <v>0</v>
       </c>
       <c r="I5" s="16">
         <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0</v>
+      </c>
       <c r="G6" s="6">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
       </c>
       <c r="I6" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -797,104 +906,147 @@
         <v>15</v>
       </c>
       <c r="C7" s="6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D7" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="6">
         <v>2</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
       <c r="I7" s="16">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="6">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
       <c r="G8" s="6">
-        <v>60</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="B9" s="6">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
       <c r="G9" s="6">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
       </c>
-      <c r="I9" s="16">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="24">
+        <f t="shared" ref="B11:H11" si="1">SUM(B3:B10)</f>
+        <v>79</v>
+      </c>
+      <c r="C11" s="26">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="D11" s="25">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+      <c r="H11" s="23">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I11" s="16">
+        <f>(A2*7)*B2</f>
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -903,142 +1055,296 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="J12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
-      <c r="J13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="16">
         <v>10</v>
       </c>
-      <c r="J15" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="16">
         <v>8</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F16" s="37">
+        <f>G16/H16</f>
+        <v>0.94208494208494209</v>
+      </c>
+      <c r="G16" s="1">
+        <v>244</v>
+      </c>
+      <c r="H16" s="1">
+        <v>259</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="16">
         <v>6</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F17" s="37">
+        <f>G17/H17</f>
+        <v>0.98360655737704916</v>
+      </c>
+      <c r="G17" s="1">
+        <v>180</v>
+      </c>
+      <c r="H17" s="1">
+        <v>183</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" s="16">
         <v>4</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="16">
         <v>2</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" s="16">
         <v>10</v>
       </c>
-      <c r="J20" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B21" s="16">
         <v>5</v>
       </c>
-      <c r="J21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="1">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="1">
+        <f>I11</f>
+        <v>4270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="29">
+        <f t="shared" ref="B25:H25" si="2">B11*B2</f>
+        <v>790</v>
+      </c>
+      <c r="C25" s="30">
+        <f t="shared" si="2"/>
+        <v>912</v>
+      </c>
+      <c r="D25" s="31">
+        <f t="shared" si="2"/>
+        <v>270</v>
+      </c>
+      <c r="E25" s="32">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="F25" s="33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="H25" s="33">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="I25" s="16">
+        <f>SUM(B25:H25)</f>
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="35">
+        <f>B25/I25</f>
+        <v>0.20729467331409079</v>
+      </c>
+      <c r="C26" s="35">
+        <f>C25/I25</f>
+        <v>0.23930726843348202</v>
+      </c>
+      <c r="D26" s="35">
+        <f>D25/I25</f>
+        <v>7.0847546575701914E-2</v>
+      </c>
+      <c r="E26" s="35">
+        <f>E25/I25</f>
+        <v>6.2975596956179481E-3</v>
+      </c>
+      <c r="F26" s="35">
+        <f>F25/I25</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="36">
+        <f>G25/I25</f>
+        <v>0.47231697717134613</v>
+      </c>
+      <c r="H26" s="35">
+        <f>H25/I25</f>
+        <v>3.9359748097612174E-3</v>
+      </c>
+      <c r="I26" s="35">
+        <f>I25/I24</f>
+        <v>0.8925058548009368</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J22" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="1">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>39</v>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
